--- a/biology/Zoologie/Catoblepia/Catoblepia.xlsx
+++ b/biology/Zoologie/Catoblepia/Catoblepia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae, de la tribu des Brassolini.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre  Catoblepia a été décrit par le naturaliste allemand Hans Ferdinand Emil Julius Stichel en 1902[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre  Catoblepia a été décrit par le naturaliste allemand Hans Ferdinand Emil Julius Stichel en 1902.
 L'espèce type pour le genre est Catoblepia xanthus (Linnaeus, 1758).</t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des groupes et espèces
 Groupe du generosa
-Catoblepia berecynthia (Cramer, [1777]); présent au Venezuela, en Colombie, en Bolivie, en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+Catoblepia berecynthia (Cramer, ); présent au Venezuela, en Colombie, en Bolivie, en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
 Catoblepia generosa (Stichel, 1902); présent en Équateur
 Groupe du xanthus 
-Catoblepia amphirhoe (Hübner, [1825]); présent au Brésil
+Catoblepia amphirhoe (Hübner, ); présent au Brésil
 Catoblepia versitincta (Stichel, 1901); présent  au Brésil, au Surinam et en Guyane.
-Catoblepia xanthicles (Godman &amp; Salvin, [1881]); présent au Costa Rica, à Panama, en Colombie, en Bolivie, en Équateur, au Pérou, au Brésil et en Guyane.
-Catoblepia xanthus (Linnaeus, 1758); présent en Équateur, au Pérou, au Surinam, en Guyana et en Guyane[2].
+Catoblepia xanthicles (Godman &amp; Salvin, ); présent au Costa Rica, à Panama, en Colombie, en Bolivie, en Équateur, au Pérou, au Brésil et en Guyane.
+Catoblepia xanthus (Linnaeus, 1758); présent en Équateur, au Pérou, au Surinam, en Guyana et en Guyane.
 			Catoblepia xanthus - MHNT
 Groupe non nommé
 Catoblepia orgetorix (Hewitson, 1870); présent au Costa Rica, à Panama, au Nicaragua, en Colombie et en Équateur.
@@ -584,7 +600,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique du Sud.
 </t>
@@ -615,9 +633,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes de leurs chenilles sont des Banana[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de leurs chenilles sont des Banana.
 </t>
         </is>
       </c>
